--- a/Documents/CSDL.xlsx
+++ b/Documents/CSDL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Duc Hoa\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Duc Hoa\Desktop\TLCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>User</t>
   </si>
@@ -98,18 +98,12 @@
     <t>WaterResistance</t>
   </si>
   <si>
-    <t>Value : string</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
     <t>SizeId : int</t>
   </si>
   <si>
-    <t>Value : float</t>
-  </si>
-  <si>
     <t>WaterId : int</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>Cart</t>
   </si>
   <si>
-    <t>CartId : int</t>
-  </si>
-  <si>
     <t>ProductId : string</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>Total : float</t>
   </si>
   <si>
-    <t>OrderDate : date</t>
-  </si>
-  <si>
     <t>Transaction : string</t>
   </si>
   <si>
@@ -173,9 +161,6 @@
     <t>Content : string</t>
   </si>
   <si>
-    <t>Date : date</t>
-  </si>
-  <si>
     <t>Avatar : byte[]</t>
   </si>
   <si>
@@ -183,6 +168,36 @@
   </si>
   <si>
     <t>CommentId : int</t>
+  </si>
+  <si>
+    <t>ProductName : string</t>
+  </si>
+  <si>
+    <t>Energy : int</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>EnergyId : int</t>
+  </si>
+  <si>
+    <t>SizeValue : float</t>
+  </si>
+  <si>
+    <t>MaterialValue : string</t>
+  </si>
+  <si>
+    <t>EnergyValue : string</t>
+  </si>
+  <si>
+    <t>WaterValue : string</t>
+  </si>
+  <si>
+    <t>Date : datetime</t>
+  </si>
+  <si>
+    <t>OrderDate : datetime</t>
   </si>
 </sst>
 </file>
@@ -253,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -267,6 +282,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N25"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,33 +579,33 @@
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>31</v>
+      <c r="L2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
@@ -602,13 +622,13 @@
         <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -625,13 +645,13 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -660,11 +680,14 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>51</v>
+      <c r="N7" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -680,6 +703,9 @@
       <c r="L8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -692,7 +718,10 @@
         <v>11</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -703,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>11</v>
@@ -711,103 +740,99 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="15" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="16" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>3</v>
+      <c r="H16" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
@@ -815,30 +840,35 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
